--- a/experience/Potential/KAI/graph/result_graph.xlsx
+++ b/experience/Potential/KAI/graph/result_graph.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="chain_D2_D4" sheetId="1" r:id="rId1"/>
     <sheet name="chain_FULL" sheetId="2" r:id="rId2"/>
     <sheet name="chain_del" sheetId="3" r:id="rId3"/>
     <sheet name="tsumoList_D3_D3FULL_D4" sheetId="4" r:id="rId4"/>
+    <sheet name="chain_N3FULL_N4" sheetId="7" r:id="rId5"/>
+    <sheet name="totalPuyo_N3_N3del" sheetId="9" r:id="rId6"/>
+    <sheet name="chain_N3_N3del" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -20,35 +23,51 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="5">
   <si>
     <t>n=2</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>n=3</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>n=4</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>n=3, full width</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>n=3, delete</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -84,24 +103,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 3" xfId="2"/>
+    <cellStyle name="標準 4" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -111,6 +144,1041 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>chain_N3FULL_N4!$B$1:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.68</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.04</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.56</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.72</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.84</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.74</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.88</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:val>
+            <c:numRef>
+              <c:f>chain_N3FULL_N4!$C$1:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.46</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.0399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.3800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.68</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.84</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.98</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.02</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="134336512"/>
+        <c:axId val="185039040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="134336512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="185039040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="185039040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="134336512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>totalPuyo_N3_N3del!$B$1:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:val>
+            <c:numRef>
+              <c:f>totalPuyo_N3_N3del!$C$1:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.62</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31.02</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.72</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37.86</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39.42</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42.04</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43.62</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45.14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45.88</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46.64</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47.72</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>47.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="167602176"/>
+        <c:axId val="160174016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="167602176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="160174016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="160174016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="167602176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>N3</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>chain_N3_N3del!$B$1:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.58</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.36</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.78</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.74</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.56</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.54</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.14</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>N3Del</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>chain_N3_N3del!$C$1:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.76</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.46</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.68</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.44</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.06</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.08</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.78</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.56</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.74</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="12305920"/>
+        <c:axId val="233092160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="12305920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="233092160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="233092160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="12305920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1607,7 +2675,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2822,7 +3890,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3636,7 +4704,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3645,7 +4713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -4112,7 +5180,1171 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="C1" s="3">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2.42</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2.72</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3.06</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3.48</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3.82</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4.12</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.26</v>
+      </c>
+      <c r="C15" s="3">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5.52</v>
+      </c>
+      <c r="C16" s="3">
+        <v>7.46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5.68</v>
+      </c>
+      <c r="C17" s="3">
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3">
+        <v>6.04</v>
+      </c>
+      <c r="C18" s="3">
+        <v>8.0399999999999991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3">
+        <v>6.36</v>
+      </c>
+      <c r="C19" s="3">
+        <v>8.3800000000000008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3">
+        <v>6.58</v>
+      </c>
+      <c r="C20" s="3">
+        <v>8.64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="C21" s="3">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3">
+        <v>7.22</v>
+      </c>
+      <c r="C23" s="3">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3">
+        <v>7.56</v>
+      </c>
+      <c r="C25" s="3">
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="C26" s="3">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3">
+        <v>7.72</v>
+      </c>
+      <c r="C27" s="3">
+        <v>9.84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3">
+        <v>7.84</v>
+      </c>
+      <c r="C28" s="3">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3">
+        <v>7.74</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3">
+        <v>7.88</v>
+      </c>
+      <c r="C30" s="3">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3">
+        <v>7.36</v>
+      </c>
+      <c r="C31" s="3">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="C32" s="3">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="3">
+        <v>6.68</v>
+      </c>
+      <c r="C33" s="3">
+        <v>8.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <f>A1*2</f>
+        <v>2</v>
+      </c>
+      <c r="C1" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B33" si="0">A2*2</f>
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C6" s="4">
+        <v>11.68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C7" s="4">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C8" s="4">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C9" s="4">
+        <v>16.440000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C10" s="4">
+        <v>17.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C11" s="4">
+        <v>19.579999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C12" s="4">
+        <v>21.28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C13" s="4">
+        <v>22.62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C14" s="4">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C15" s="4">
+        <v>25.94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C16" s="4">
+        <v>27.26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C17" s="4">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C18" s="4">
+        <v>31.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C19" s="4">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C20" s="4">
+        <v>34.72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C21" s="4">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C22" s="4">
+        <v>37.86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C23" s="4">
+        <v>39.42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C24" s="4">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C25" s="4">
+        <v>42.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C26" s="4">
+        <v>43.62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C27" s="4">
+        <v>45.26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C28" s="4">
+        <v>45.14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C29" s="4">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C30" s="4">
+        <v>45.88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="C31" s="4">
+        <v>46.64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C32" s="4">
+        <v>47.72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="C33" s="4">
+        <v>47.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="C1" s="4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1.28</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1.94</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2.46</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2.68</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4">
+        <v>3.18</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3.36</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3.58</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4">
+        <v>3.94</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4">
+        <v>4.34</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4">
+        <v>4.18</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="C17" s="4">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4">
+        <v>4.96</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4">
+        <v>5.22</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4">
+        <v>5.36</v>
+      </c>
+      <c r="C21" s="4">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="C22" s="4">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4">
+        <v>5.54</v>
+      </c>
+      <c r="C23" s="4">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="C24" s="4">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="4">
+        <v>5.78</v>
+      </c>
+      <c r="C25" s="4">
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="4">
+        <v>5.74</v>
+      </c>
+      <c r="C26" s="4">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" s="4">
+        <v>5.38</v>
+      </c>
+      <c r="C27" s="4">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="C28" s="4">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C29" s="4">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" s="4">
+        <v>5.56</v>
+      </c>
+      <c r="C30" s="4">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" s="4">
+        <v>5.54</v>
+      </c>
+      <c r="C31" s="4">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" s="4">
+        <v>5.14</v>
+      </c>
+      <c r="C32" s="4">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" s="4">
+        <v>5.96</v>
+      </c>
+      <c r="C33" s="4">
+        <v>5.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>